--- a/data/trans_orig/P36B06_R-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B06_R-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>379969</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>361207</v>
+        <v>361300</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>397992</v>
+        <v>396147</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.802001338122432</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7623995374553524</v>
+        <v>0.7625957858722716</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8400431943998877</v>
+        <v>0.8361486505270831</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>251</v>
@@ -764,19 +764,19 @@
         <v>258815</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>244535</v>
+        <v>244934</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>270798</v>
+        <v>270175</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8439254855768342</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.7973616404415435</v>
+        <v>0.7986626203990707</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8829990472922379</v>
+        <v>0.8809667851784113</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>618</v>
@@ -785,19 +785,19 @@
         <v>638785</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>613782</v>
+        <v>614451</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>659201</v>
+        <v>660008</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8184754252120637</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.7864388369150848</v>
+        <v>0.7872963957155845</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8446343307661351</v>
+        <v>0.8456682845780673</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>93807</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>75784</v>
+        <v>77629</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>112569</v>
+        <v>112476</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.197998661877568</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1599568056001121</v>
+        <v>0.1638513494729175</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2376004625446476</v>
+        <v>0.2374042141277284</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>47</v>
@@ -835,19 +835,19 @@
         <v>47865</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>35882</v>
+        <v>36505</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>62145</v>
+        <v>61746</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1560745144231657</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1170009527077619</v>
+        <v>0.1190332148215886</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.202638359558456</v>
+        <v>0.2013373796009296</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>135</v>
@@ -856,19 +856,19 @@
         <v>141672</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>121256</v>
+        <v>120449</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>166675</v>
+        <v>166006</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1815245747879363</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1553656692338649</v>
+        <v>0.154331715421933</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2135611630849152</v>
+        <v>0.2127036042844158</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>288586</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>272213</v>
+        <v>270901</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>303454</v>
+        <v>302720</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7883755291257085</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7436450763568331</v>
+        <v>0.7400613734660206</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8289928125556927</v>
+        <v>0.8269868574757673</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>281</v>
@@ -981,19 +981,19 @@
         <v>290077</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>273194</v>
+        <v>273754</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>304684</v>
+        <v>305702</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.7800603272374366</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7346589549913397</v>
+        <v>0.7361661985729636</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8193412915491596</v>
+        <v>0.8220765973347645</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>555</v>
@@ -1002,19 +1002,19 @@
         <v>578664</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>556212</v>
+        <v>556647</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>600124</v>
+        <v>599449</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.7841851782883716</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7537591200078679</v>
+        <v>0.7543492455959694</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8132673821656713</v>
+        <v>0.8123533029049357</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>77466</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62598</v>
+        <v>63332</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>93839</v>
+        <v>95151</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2116244708742915</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1710071874443073</v>
+        <v>0.1730131425242329</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2563549236431666</v>
+        <v>0.2599386265339796</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>82</v>
@@ -1052,19 +1052,19 @@
         <v>81788</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>67181</v>
+        <v>66163</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>98671</v>
+        <v>98111</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2199396727625634</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1806587084508403</v>
+        <v>0.1779234026652358</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2653410450086603</v>
+        <v>0.2638338014270364</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>157</v>
@@ -1073,19 +1073,19 @@
         <v>159253</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>137793</v>
+        <v>138468</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>181705</v>
+        <v>181270</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2158148217116284</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1867326178343287</v>
+        <v>0.1876466970950643</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.246240879992132</v>
+        <v>0.2456507544040306</v>
       </c>
     </row>
     <row r="9">
@@ -1177,19 +1177,19 @@
         <v>415811</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>396625</v>
+        <v>396497</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>435414</v>
+        <v>434404</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7666283960475541</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.731256108410236</v>
+        <v>0.731018973758038</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.8027714001111221</v>
+        <v>0.800908809545975</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>135</v>
@@ -1198,19 +1198,19 @@
         <v>136499</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>125560</v>
+        <v>124311</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>146015</v>
+        <v>146192</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8135472961784754</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7483510747031417</v>
+        <v>0.7409074309281037</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8702632396672909</v>
+        <v>0.8713238386035306</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>539</v>
@@ -1219,19 +1219,19 @@
         <v>552309</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>530629</v>
+        <v>527348</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>575669</v>
+        <v>573706</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.7777132510268194</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7471852289472349</v>
+        <v>0.7425643603825105</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8106063834657287</v>
+        <v>0.8078424585057299</v>
       </c>
     </row>
     <row r="11">
@@ -1248,19 +1248,19 @@
         <v>126578</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>106975</v>
+        <v>107985</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>145764</v>
+        <v>145892</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.233371603952446</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1972285998888778</v>
+        <v>0.199091190454025</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.268743891589764</v>
+        <v>0.2689810262419619</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>29</v>
@@ -1269,19 +1269,19 @@
         <v>31283</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>21767</v>
+        <v>21590</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>42222</v>
+        <v>43471</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1864527038215246</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1297367603327091</v>
+        <v>0.1286761613964695</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2516489252968584</v>
+        <v>0.2590925690718963</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>157</v>
@@ -1290,19 +1290,19 @@
         <v>157862</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>134502</v>
+        <v>136465</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>179542</v>
+        <v>182823</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.2222867489731805</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1893936165342714</v>
+        <v>0.1921575414942701</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2528147710527651</v>
+        <v>0.2574356396174895</v>
       </c>
     </row>
     <row r="12">
@@ -1394,19 +1394,19 @@
         <v>956676</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>928753</v>
+        <v>925617</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>987956</v>
+        <v>984443</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.7731423490655359</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7505768472719061</v>
+        <v>0.7480425613645344</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.7984219175463312</v>
+        <v>0.7955825418244525</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>563</v>
@@ -1415,19 +1415,19 @@
         <v>580314</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>558991</v>
+        <v>557134</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>600243</v>
+        <v>599811</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8124398406956723</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.7825888290042254</v>
+        <v>0.7799884885970151</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8403405427408812</v>
+        <v>0.8397361851284962</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1512</v>
@@ -1436,19 +1436,19 @@
         <v>1536990</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1496483</v>
+        <v>1502254</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1571467</v>
+        <v>1574199</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7875246967739544</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7667696375879849</v>
+        <v>0.7697267313856445</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8051901149031478</v>
+        <v>0.8065897004859404</v>
       </c>
     </row>
     <row r="14">
@@ -1465,19 +1465,19 @@
         <v>280710</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>249430</v>
+        <v>252943</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>308633</v>
+        <v>311769</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2268576509344641</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2015780824536687</v>
+        <v>0.2044174581755475</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.249423152728094</v>
+        <v>0.2519574386354657</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>131</v>
@@ -1486,19 +1486,19 @@
         <v>133971</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>114042</v>
+        <v>114474</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>155294</v>
+        <v>157151</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1875601593043277</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1596594572591189</v>
+        <v>0.1602638148715038</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2174111709957748</v>
+        <v>0.2200115114029852</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>405</v>
@@ -1507,19 +1507,19 @@
         <v>414682</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>380205</v>
+        <v>377473</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>455189</v>
+        <v>449418</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2124753032260456</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1948098850968522</v>
+        <v>0.1934102995140598</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2332303624120152</v>
+        <v>0.2302732686143557</v>
       </c>
     </row>
     <row r="15">
@@ -1611,19 +1611,19 @@
         <v>246018</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>229289</v>
+        <v>229372</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>262424</v>
+        <v>262989</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.7017955127979354</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.654075161965087</v>
+        <v>0.6543105726911401</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.7485956222242806</v>
+        <v>0.7502081668344498</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>432</v>
@@ -1632,19 +1632,19 @@
         <v>455068</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>436187</v>
+        <v>434401</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>474445</v>
+        <v>473311</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8016103069471606</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.7683513041502726</v>
+        <v>0.7652059123303064</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8357436930131432</v>
+        <v>0.8337457750352903</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>670</v>
@@ -1653,19 +1653,19 @@
         <v>701086</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>674102</v>
+        <v>675809</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>727493</v>
+        <v>727682</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.7635044429793447</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.7341182951633216</v>
+        <v>0.7359770160522426</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.7922629801440221</v>
+        <v>0.7924690107812714</v>
       </c>
     </row>
     <row r="17">
@@ -1682,19 +1682,19 @@
         <v>104537</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>88131</v>
+        <v>87566</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>121266</v>
+        <v>121183</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2982044872020645</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2514043777757194</v>
+        <v>0.2497918331655502</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3459248380349129</v>
+        <v>0.3456894273088599</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>106</v>
@@ -1703,19 +1703,19 @@
         <v>112624</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>93247</v>
+        <v>94381</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>131505</v>
+        <v>133291</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1983896930528393</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1642563069868566</v>
+        <v>0.1662542249647095</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2316486958497273</v>
+        <v>0.2347940876696927</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>208</v>
@@ -1724,19 +1724,19 @@
         <v>217161</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>190754</v>
+        <v>190565</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>244145</v>
+        <v>242438</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2364955570206553</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2077370198559778</v>
+        <v>0.2075309892187283</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2658817048366783</v>
+        <v>0.2640229839477571</v>
       </c>
     </row>
     <row r="18">
@@ -1828,19 +1828,19 @@
         <v>202539</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>185677</v>
+        <v>186003</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>216530</v>
+        <v>217135</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.6815855006453679</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6248433354462324</v>
+        <v>0.6259381304811878</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7286684707858371</v>
+        <v>0.7307053953405674</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>1021</v>
@@ -1849,19 +1849,19 @@
         <v>1035663</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1008072</v>
+        <v>1009741</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1059942</v>
+        <v>1060602</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8300015411589479</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8078899092539222</v>
+        <v>0.8092270557544186</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8494596813006474</v>
+        <v>0.8499883047437502</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1229</v>
@@ -1870,19 +1870,19 @@
         <v>1238201</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1205398</v>
+        <v>1208724</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1267658</v>
+        <v>1268268</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8014548122356662</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7802221045449073</v>
+        <v>0.7823750306168273</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8205214481145994</v>
+        <v>0.8209165037697128</v>
       </c>
     </row>
     <row r="20">
@@ -1899,19 +1899,19 @@
         <v>94619</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>80628</v>
+        <v>80023</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>111481</v>
+        <v>111155</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.318414499354632</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2713315292141631</v>
+        <v>0.2692946046594326</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3751566645537677</v>
+        <v>0.374061869518812</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>216</v>
@@ -1920,19 +1920,19 @@
         <v>212121</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>187842</v>
+        <v>187182</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>239712</v>
+        <v>238043</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1699984588410521</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1505403186993526</v>
+        <v>0.1500116952562501</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1921100907460778</v>
+        <v>0.1907729442455815</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>313</v>
@@ -1941,19 +1941,19 @@
         <v>306741</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>277284</v>
+        <v>276674</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>339544</v>
+        <v>336218</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1985451877643339</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1794785518854005</v>
+        <v>0.1790834962302873</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2197778954550927</v>
+        <v>0.2176249693831727</v>
       </c>
     </row>
     <row r="21">
@@ -2045,19 +2045,19 @@
         <v>2489600</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2431537</v>
+        <v>2441072</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2538290</v>
+        <v>2538046</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.7619704547052801</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7441996965261762</v>
+        <v>0.7471180664988283</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.776872787706865</v>
+        <v>0.7767978843588699</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2683</v>
@@ -2066,19 +2066,19 @@
         <v>2756436</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2708959</v>
+        <v>2709392</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2802399</v>
+        <v>2798978</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8164582218273008</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8023955977474728</v>
+        <v>0.8025238029310851</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8300727105283917</v>
+        <v>0.8290593091218731</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5123</v>
@@ -2087,19 +2087,19 @@
         <v>5246035</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5172949</v>
+        <v>5179823</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5311217</v>
+        <v>5317655</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.789660394774173</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.7786592072198855</v>
+        <v>0.7796939300476923</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.7994720532403525</v>
+        <v>0.800441122862012</v>
       </c>
     </row>
     <row r="23">
@@ -2116,19 +2116,19 @@
         <v>777718</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>729028</v>
+        <v>729272</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>835781</v>
+        <v>826246</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2380295452947198</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.223127212293135</v>
+        <v>0.22320211564113</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2558003034738237</v>
+        <v>0.2528819335011716</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>611</v>
@@ -2137,19 +2137,19 @@
         <v>619653</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>573690</v>
+        <v>577111</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>667130</v>
+        <v>666697</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1835417781726993</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1699272894716082</v>
+        <v>0.170940690878127</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1976044022525272</v>
+        <v>0.1974761970689149</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1375</v>
@@ -2158,19 +2158,19 @@
         <v>1397371</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1332189</v>
+        <v>1325751</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1470457</v>
+        <v>1463583</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.210339605225827</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.2005279467596475</v>
+        <v>0.199558877137988</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2213407927801145</v>
+        <v>0.2203060699523077</v>
       </c>
     </row>
     <row r="24">
@@ -2504,19 +2504,19 @@
         <v>369806</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>350934</v>
+        <v>351565</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>383844</v>
+        <v>383747</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8458289371447428</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.8026648716791595</v>
+        <v>0.8041085018515379</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8779377992680109</v>
+        <v>0.8777153088271564</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>257</v>
@@ -2525,19 +2525,19 @@
         <v>285517</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>271921</v>
+        <v>274063</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>295059</v>
+        <v>294772</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.9111275846807072</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8677398609316729</v>
+        <v>0.874574562709614</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.9415761810188593</v>
+        <v>0.9406618642165817</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>597</v>
@@ -2546,19 +2546,19 @@
         <v>655322</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>635365</v>
+        <v>634446</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>673532</v>
+        <v>673665</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8730911883432467</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8465019511052395</v>
+        <v>0.8452776781847298</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8973527982743313</v>
+        <v>0.897530139733824</v>
       </c>
     </row>
     <row r="5">
@@ -2575,19 +2575,19 @@
         <v>67405</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>53367</v>
+        <v>53464</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>86277</v>
+        <v>85646</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1541710628552572</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1220622007319892</v>
+        <v>0.1222846911728434</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.19733512832084</v>
+        <v>0.1958914981484621</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>25</v>
@@ -2596,19 +2596,19 @@
         <v>27850</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>18308</v>
+        <v>18595</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>41446</v>
+        <v>39304</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.08887241531929282</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.05842381898114068</v>
+        <v>0.05933813578341784</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.132260139068327</v>
+        <v>0.1254254372903859</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>89</v>
@@ -2617,19 +2617,19 @@
         <v>95255</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>77045</v>
+        <v>76912</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>115212</v>
+        <v>116131</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1269088116567533</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1026472017256689</v>
+        <v>0.1024698602661763</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1534980488947615</v>
+        <v>0.1547223218152703</v>
       </c>
     </row>
     <row r="6">
@@ -2721,19 +2721,19 @@
         <v>358220</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>341505</v>
+        <v>341341</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>371826</v>
+        <v>373569</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8574861084943294</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.817474864593926</v>
+        <v>0.8170825971511411</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.890055984056583</v>
+        <v>0.8942267391655345</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>262</v>
@@ -2742,19 +2742,19 @@
         <v>292792</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>278608</v>
+        <v>277539</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>304647</v>
+        <v>304319</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8714959900918744</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.829277920590005</v>
+        <v>0.82609577843499</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9067813955744908</v>
+        <v>0.9058061249781505</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>581</v>
@@ -2763,19 +2763,19 @@
         <v>651012</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>630082</v>
+        <v>628155</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>670287</v>
+        <v>669946</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8637308921694428</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8359620455238855</v>
+        <v>0.833404578127043</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8893040076346304</v>
+        <v>0.8888517298398311</v>
       </c>
     </row>
     <row r="8">
@@ -2792,19 +2792,19 @@
         <v>59536</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>45930</v>
+        <v>44187</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>76251</v>
+        <v>76415</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1425138915056706</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1099440159434169</v>
+        <v>0.1057732608344655</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1825251354060739</v>
+        <v>0.1829174028488589</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>41</v>
@@ -2813,19 +2813,19 @@
         <v>43173</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>31318</v>
+        <v>31646</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>57357</v>
+        <v>58426</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1285040099081256</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.09321860442550944</v>
+        <v>0.09419387502184973</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.170722079409995</v>
+        <v>0.1739042215650101</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>96</v>
@@ -2834,19 +2834,19 @@
         <v>102709</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>83434</v>
+        <v>83775</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>123639</v>
+        <v>125566</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.1362691078305572</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1106959923653697</v>
+        <v>0.1111482701601686</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1640379544761146</v>
+        <v>0.1665954218729559</v>
       </c>
     </row>
     <row r="9">
@@ -2938,19 +2938,19 @@
         <v>517299</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>496527</v>
+        <v>496319</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>535287</v>
+        <v>536049</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.8218730833141513</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7888701945892915</v>
+        <v>0.7885398242371437</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.850451177876526</v>
+        <v>0.8516616015068511</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>210</v>
@@ -2959,19 +2959,19 @@
         <v>223638</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>211064</v>
+        <v>210140</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>234082</v>
+        <v>233527</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8597209992431766</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.8113815551366048</v>
+        <v>0.8078309745398591</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.8998695458902293</v>
+        <v>0.8977343156141757</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>694</v>
@@ -2980,19 +2980,19 @@
         <v>740938</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>716058</v>
+        <v>717646</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>762385</v>
+        <v>761364</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8329409495842492</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.8049717762911022</v>
+        <v>0.8067572935088836</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8570514084430434</v>
+        <v>0.8559042531627866</v>
       </c>
     </row>
     <row r="11">
@@ -3009,19 +3009,19 @@
         <v>112116</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>94128</v>
+        <v>93366</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>132888</v>
+        <v>133096</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1781269166858487</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.149548822123474</v>
+        <v>0.1483383984931488</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2111298054107085</v>
+        <v>0.2114601757628563</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>34</v>
@@ -3030,19 +3030,19 @@
         <v>36491</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>26047</v>
+        <v>26602</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>49065</v>
+        <v>49989</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1402790007568235</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.100130454109771</v>
+        <v>0.1022656843858253</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1886184448633955</v>
+        <v>0.1921690254601419</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>141</v>
@@ -3051,19 +3051,19 @@
         <v>148606</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>127159</v>
+        <v>128180</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>173486</v>
+        <v>171898</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1670590504157507</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1429485915569567</v>
+        <v>0.1440957468372133</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1950282237088979</v>
+        <v>0.1932427064911166</v>
       </c>
     </row>
     <row r="12">
@@ -3155,19 +3155,19 @@
         <v>996829</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>967980</v>
+        <v>970305</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>1017984</v>
+        <v>1019196</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8615520126641317</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.836618736401368</v>
+        <v>0.8386276760147076</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8798362924585786</v>
+        <v>0.8808837522403002</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>611</v>
@@ -3176,19 +3176,19 @@
         <v>655045</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>634511</v>
+        <v>631969</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>673093</v>
+        <v>673550</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.8565706883254636</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.8297192960628006</v>
+        <v>0.8263951377311387</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.8801703142436968</v>
+        <v>0.8807680146117006</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1540</v>
@@ -3197,19 +3197,19 @@
         <v>1651874</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1617510</v>
+        <v>1619752</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1682618</v>
+        <v>1687375</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.8595697684946799</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.8416879744225552</v>
+        <v>0.8428549603656638</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.875567956119244</v>
+        <v>0.8780432775471422</v>
       </c>
     </row>
     <row r="14">
@@ -3226,19 +3226,19 @@
         <v>160186</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>139031</v>
+        <v>137819</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>189035</v>
+        <v>186710</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1384479873358683</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1201637075414217</v>
+        <v>0.1191162477596998</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1633812635986324</v>
+        <v>0.1613723239852928</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>99</v>
@@ -3247,19 +3247,19 @@
         <v>109685</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>91637</v>
+        <v>91180</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>130219</v>
+        <v>132761</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1434293116745364</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1198296857563031</v>
+        <v>0.1192319853882995</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1702807039371995</v>
+        <v>0.1736048622688613</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>251</v>
@@ -3268,19 +3268,19 @@
         <v>269871</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>239127</v>
+        <v>234370</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>304235</v>
+        <v>301993</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1404302315053201</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.124432043880756</v>
+        <v>0.1219567224528578</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1583120255774449</v>
+        <v>0.1571450396343362</v>
       </c>
     </row>
     <row r="15">
@@ -3372,19 +3372,19 @@
         <v>412702</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>395342</v>
+        <v>394431</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>430891</v>
+        <v>429570</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8114972299212037</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7773625505146258</v>
+        <v>0.7755693284995832</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.8472613890712701</v>
+        <v>0.844663907404248</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>616</v>
@@ -3393,19 +3393,19 @@
         <v>667102</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>645189</v>
+        <v>648252</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>684456</v>
+        <v>684812</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8760118657536485</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8472365918333719</v>
+        <v>0.8512584441762187</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.898799712077567</v>
+        <v>0.8992674630570536</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1006</v>
@@ -3414,19 +3414,19 @@
         <v>1079804</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1055081</v>
+        <v>1052116</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1104044</v>
+        <v>1104393</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8501789567713848</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.830713721785423</v>
+        <v>0.828379425779096</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8692646628497767</v>
+        <v>0.869539017329389</v>
       </c>
     </row>
     <row r="17">
@@ -3443,19 +3443,19 @@
         <v>95867</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>77678</v>
+        <v>78999</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>113227</v>
+        <v>114138</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1885027700787963</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1527386109287299</v>
+        <v>0.1553360925957523</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2226374494853742</v>
+        <v>0.2244306715004169</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>87</v>
@@ -3464,19 +3464,19 @@
         <v>94420</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>77066</v>
+        <v>76710</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>116333</v>
+        <v>113270</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1239881342463515</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1012002879224326</v>
+        <v>0.1007325369429457</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1527634081666278</v>
+        <v>0.1487415558237814</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>182</v>
@@ -3485,19 +3485,19 @@
         <v>190286</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>166046</v>
+        <v>165697</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>215009</v>
+        <v>217974</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1498210432286153</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1307353371502234</v>
+        <v>0.130460982670611</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.169286278214577</v>
+        <v>0.171620574220904</v>
       </c>
     </row>
     <row r="18">
@@ -3589,19 +3589,19 @@
         <v>195495</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>178528</v>
+        <v>181167</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>207637</v>
+        <v>208860</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7325163366829911</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.6689400544168068</v>
+        <v>0.6788269215332678</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7780102451279671</v>
+        <v>0.7825922573534982</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>928</v>
@@ -3610,19 +3610,19 @@
         <v>985512</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>963497</v>
+        <v>962910</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>1005334</v>
+        <v>1007832</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.8901939883444978</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8703074881882106</v>
+        <v>0.8697775121667497</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.9080981257335231</v>
+        <v>0.9103546158484785</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1122</v>
@@ -3631,19 +3631,19 @@
         <v>1181008</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1152514</v>
+        <v>1154563</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1206920</v>
+        <v>1205797</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8595661730541768</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.8388275501869572</v>
+        <v>0.8403193072086003</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8784259036102168</v>
+        <v>0.8776080214042049</v>
       </c>
     </row>
     <row r="20">
@@ -3660,19 +3660,19 @@
         <v>71387</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>59245</v>
+        <v>58022</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>88354</v>
+        <v>85715</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2674836633170089</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2219897548720327</v>
+        <v>0.2174077426465016</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.3310599455831931</v>
+        <v>0.3211730784667322</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>114</v>
@@ -3681,19 +3681,19 @@
         <v>121564</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>101742</v>
+        <v>99244</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>143579</v>
+        <v>144166</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1098060116555022</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.09190187426647693</v>
+        <v>0.08964538415152153</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1296925118117894</v>
+        <v>0.1302224878332504</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>185</v>
@@ -3702,19 +3702,19 @@
         <v>192950</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>167038</v>
+        <v>168161</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>221444</v>
+        <v>219395</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1404338269458232</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1215740963897833</v>
+        <v>0.1223919785957951</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1611724498130429</v>
+        <v>0.1596806927913998</v>
       </c>
     </row>
     <row r="21">
@@ -3806,19 +3806,19 @@
         <v>2850351</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2808767</v>
+        <v>2804923</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2895504</v>
+        <v>2897401</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.834204889631798</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8220343898961067</v>
+        <v>0.8209095314655949</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8474194718079673</v>
+        <v>0.8479749087500936</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2884</v>
@@ -3827,19 +3827,19 @@
         <v>3109607</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>3067242</v>
+        <v>3066645</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>3148519</v>
+        <v>3149644</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8777287690808224</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8657708177236499</v>
+        <v>0.8656021392344134</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8887123361100867</v>
+        <v>0.8890298534265213</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5540</v>
@@ -3848,19 +3848,19 @@
         <v>5959958</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5894285</v>
+        <v>5895452</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>6019392</v>
+        <v>6016712</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8563606299770923</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8469243131840187</v>
+        <v>0.8470919680680685</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8649004139537277</v>
+        <v>0.8645153364097975</v>
       </c>
     </row>
     <row r="23">
@@ -3877,19 +3877,19 @@
         <v>566497</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>521344</v>
+        <v>519447</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>608081</v>
+        <v>611925</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.165795110368202</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1525805281920327</v>
+        <v>0.1520250912499064</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1779656101038933</v>
+        <v>0.1790904685344051</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>400</v>
@@ -3898,19 +3898,19 @@
         <v>433181</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>394269</v>
+        <v>393144</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>475546</v>
+        <v>476143</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1222712309191775</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1112876638899132</v>
+        <v>0.1109701465734786</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1342291822763501</v>
+        <v>0.1343978607655863</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>944</v>
@@ -3919,19 +3919,19 @@
         <v>999678</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>940244</v>
+        <v>942924</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1065351</v>
+        <v>1064184</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1436393700229077</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1350995860462724</v>
+        <v>0.1354846635902026</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1530756868159817</v>
+        <v>0.1529080319319321</v>
       </c>
     </row>
     <row r="24">
@@ -4265,19 +4265,19 @@
         <v>355273</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>336289</v>
+        <v>336639</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>370666</v>
+        <v>370712</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.8279638593419736</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.7837222238486868</v>
+        <v>0.7845379288328399</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.8638385783397222</v>
+        <v>0.8639453784241051</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>282</v>
@@ -4286,19 +4286,19 @@
         <v>296686</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>282465</v>
+        <v>281183</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>309202</v>
+        <v>308436</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.8548684155234062</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.8138913815592682</v>
+        <v>0.8101965170012815</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8909303318226953</v>
+        <v>0.8887238952450687</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>614</v>
@@ -4307,19 +4307,19 @@
         <v>651959</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>629388</v>
+        <v>630341</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>671391</v>
+        <v>673957</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.8399942598069352</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.8109136748696479</v>
+        <v>0.8121410654699601</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.8650313630547712</v>
+        <v>0.8683370197769975</v>
       </c>
     </row>
     <row r="5">
@@ -4336,19 +4336,19 @@
         <v>73819</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>58426</v>
+        <v>58380</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>92803</v>
+        <v>92453</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1720361406580265</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1361614216602781</v>
+        <v>0.136054621575895</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2162777761513133</v>
+        <v>0.2154620711671605</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>50</v>
@@ -4357,19 +4357,19 @@
         <v>50369</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>37853</v>
+        <v>38619</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>64590</v>
+        <v>65872</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1451315844765938</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1090696681773046</v>
+        <v>0.1112761047549313</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1861086184407318</v>
+        <v>0.1898034829987184</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>114</v>
@@ -4378,19 +4378,19 @@
         <v>124188</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>104756</v>
+        <v>102190</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>146759</v>
+        <v>145806</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1600057401930648</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1349686369452287</v>
+        <v>0.1316629802230025</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.189086325130352</v>
+        <v>0.1878589345300397</v>
       </c>
     </row>
     <row r="6">
@@ -4482,19 +4482,19 @@
         <v>316997</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>300468</v>
+        <v>301759</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>329359</v>
+        <v>329941</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8423405447020135</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.798419429468245</v>
+        <v>0.8018480076939324</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8751883650798712</v>
+        <v>0.8767366348073085</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>285</v>
@@ -4503,19 +4503,19 @@
         <v>301495</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>284961</v>
+        <v>285927</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>315938</v>
+        <v>315180</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8158854248271957</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7711422016608821</v>
+        <v>0.7737564730886316</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8549689398797878</v>
+        <v>0.8529193597764751</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>582</v>
@@ -4524,19 +4524,19 @@
         <v>618492</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>597202</v>
+        <v>596756</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>639678</v>
+        <v>639978</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.829233554537626</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.8006889738446626</v>
+        <v>0.8000906496760197</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8576386736099911</v>
+        <v>0.8580397433446697</v>
       </c>
     </row>
     <row r="8">
@@ -4553,19 +4553,19 @@
         <v>59332</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>46970</v>
+        <v>46388</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>75861</v>
+        <v>74570</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1576594552979865</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1248116349201284</v>
+        <v>0.1232633651926914</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2015805705317551</v>
+        <v>0.1981519923060676</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>65</v>
@@ -4574,19 +4574,19 @@
         <v>68036</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>53593</v>
+        <v>54351</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>84570</v>
+        <v>83604</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.1841145751728043</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.145031060120212</v>
+        <v>0.1470806402235249</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2288577983391179</v>
+        <v>0.2262435269113685</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>121</v>
@@ -4595,19 +4595,19 @@
         <v>127368</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>106182</v>
+        <v>105882</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>148658</v>
+        <v>149104</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.170766445462374</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1423613263900089</v>
+        <v>0.1419602566553305</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.1993110261553373</v>
+        <v>0.1999093503239806</v>
       </c>
     </row>
     <row r="9">
@@ -4699,19 +4699,19 @@
         <v>409407</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>388518</v>
+        <v>388206</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>427410</v>
+        <v>428196</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7886758166512302</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.7484360711678455</v>
+        <v>0.7478335046686696</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.823357081346329</v>
+        <v>0.8248694889649018</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>129</v>
@@ -4720,19 +4720,19 @@
         <v>141321</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>129826</v>
+        <v>130641</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>149504</v>
+        <v>149124</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.8507013485250261</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.7815036114848768</v>
+        <v>0.7864090551262908</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.899962110732671</v>
+        <v>0.8976737854821155</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>526</v>
@@ -4741,19 +4741,19 @@
         <v>550728</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>531141</v>
+        <v>527473</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>571664</v>
+        <v>571647</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.8037128964057215</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.7751277912403378</v>
+        <v>0.7697751551706526</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.8342657406089828</v>
+        <v>0.8342415822054609</v>
       </c>
     </row>
     <row r="11">
@@ -4770,19 +4770,19 @@
         <v>109700</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>91697</v>
+        <v>90911</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>130589</v>
+        <v>130901</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2113241833487698</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1766429186536709</v>
+        <v>0.1751305110350983</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2515639288321539</v>
+        <v>0.2521664953313303</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>24</v>
@@ -4791,19 +4791,19 @@
         <v>24802</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>16619</v>
+        <v>16999</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>36297</v>
+        <v>35482</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.149298651474974</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1000378892673291</v>
+        <v>0.1023262145178846</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2184963885151233</v>
+        <v>0.2135909448737092</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>127</v>
@@ -4812,19 +4812,19 @@
         <v>134502</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>113566</v>
+        <v>113583</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>154089</v>
+        <v>157757</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1962871035942785</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1657342593910172</v>
+        <v>0.1657584177945394</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2248722087596622</v>
+        <v>0.2302248448293475</v>
       </c>
     </row>
     <row r="12">
@@ -4916,19 +4916,19 @@
         <v>925430</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>898269</v>
+        <v>896493</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>950590</v>
+        <v>951033</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.8064537955605909</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.7827848481794958</v>
+        <v>0.7812368934502256</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.8283791598849525</v>
+        <v>0.8287656540218356</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>628</v>
@@ -4937,19 +4937,19 @@
         <v>648918</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>625017</v>
+        <v>621840</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>672559</v>
+        <v>671079</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.7866985055680749</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.757722110042391</v>
+        <v>0.7538710008169309</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.815359026661288</v>
+        <v>0.8135641092264908</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1520</v>
@@ -4958,19 +4958,19 @@
         <v>1574348</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1535908</v>
+        <v>1537558</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1607284</v>
+        <v>1609828</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.7981920466506407</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.7787026348470587</v>
+        <v>0.7795395619946603</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.8148901040151739</v>
+        <v>0.8161803843486516</v>
       </c>
     </row>
     <row r="14">
@@ -4987,19 +4987,19 @@
         <v>222100</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>196940</v>
+        <v>196497</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>249261</v>
+        <v>251037</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.193546204439409</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1716208401150474</v>
+        <v>0.1712343459781646</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2172151518205042</v>
+        <v>0.2187631065497748</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>169</v>
@@ -5008,19 +5008,19 @@
         <v>175945</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>152304</v>
+        <v>153784</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>199846</v>
+        <v>203023</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2133014944319251</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1846409733387121</v>
+        <v>0.1864358907735093</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.242277889957609</v>
+        <v>0.2461289991830692</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>378</v>
@@ -5029,19 +5029,19 @@
         <v>398045</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>365109</v>
+        <v>362565</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>436485</v>
+        <v>434835</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2018079533493592</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1851098959848261</v>
+        <v>0.1838196156513482</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2212973651529412</v>
+        <v>0.2204604380053397</v>
       </c>
     </row>
     <row r="15">
@@ -5133,19 +5133,19 @@
         <v>497713</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>475909</v>
+        <v>476761</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>516073</v>
+        <v>517859</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.8018491675750095</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.7667226111441297</v>
+        <v>0.7680946518907522</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.831428875536331</v>
+        <v>0.8343071825645217</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>593</v>
@@ -5154,19 +5154,19 @@
         <v>628701</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>606943</v>
+        <v>607754</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>646512</v>
+        <v>646155</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.8528635356182556</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.8233475170684397</v>
+        <v>0.8244474167653869</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.8770243181119258</v>
+        <v>0.876541071029264</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1078</v>
@@ -5175,19 +5175,19 @@
         <v>1126414</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1096125</v>
+        <v>1098398</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1152846</v>
+        <v>1155365</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.8295440064820628</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.8072382786924535</v>
+        <v>0.8089117826976815</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.8490102273122527</v>
+        <v>0.8508648116855211</v>
       </c>
     </row>
     <row r="17">
@@ -5204,19 +5204,19 @@
         <v>122993</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>104633</v>
+        <v>102847</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>144797</v>
+        <v>143945</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1981508324249905</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1685711244636689</v>
+        <v>0.1656928174354783</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2332773888558703</v>
+        <v>0.231905348109248</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>105</v>
@@ -5225,19 +5225,19 @@
         <v>108464</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>90653</v>
+        <v>91010</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>130222</v>
+        <v>129411</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1471364643817444</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1229756818880741</v>
+        <v>0.123458928970736</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1766524829315604</v>
+        <v>0.1755525832346131</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>217</v>
@@ -5246,19 +5246,19 @@
         <v>231457</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>205025</v>
+        <v>202506</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>261746</v>
+        <v>259473</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1704559935179372</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1509897726877467</v>
+        <v>0.1491351883144789</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1927617213075463</v>
+        <v>0.1910882173023182</v>
       </c>
     </row>
     <row r="18">
@@ -5350,19 +5350,19 @@
         <v>200829</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>185272</v>
+        <v>183883</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>217184</v>
+        <v>214972</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.7018133030913472</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.647447481835656</v>
+        <v>0.642592246603051</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.7589653373916337</v>
+        <v>0.7512345743294822</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>838</v>
@@ -5371,19 +5371,19 @@
         <v>921691</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>897289</v>
+        <v>896220</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>944952</v>
+        <v>944883</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.852604790277313</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.8300321416959243</v>
+        <v>0.8290434970144072</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.8741225699197138</v>
+        <v>0.8740585706403833</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>1028</v>
@@ -5392,19 +5392,19 @@
         <v>1122520</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1092247</v>
+        <v>1093364</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>1150333</v>
+        <v>1150208</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.8210434724904335</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.7989006291898609</v>
+        <v>0.7997183099455601</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.8413867115727297</v>
+        <v>0.841295228106105</v>
       </c>
     </row>
     <row r="20">
@@ -5421,19 +5421,19 @@
         <v>85329</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>68974</v>
+        <v>71186</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>100886</v>
+        <v>102275</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2981866969086529</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2410346626083661</v>
+        <v>0.2487654256705178</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.352552518164344</v>
+        <v>0.3574077533969488</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>153</v>
@@ -5442,19 +5442,19 @@
         <v>159338</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>136077</v>
+        <v>136146</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>183740</v>
+        <v>184809</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1473952097226871</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.125877430080286</v>
+        <v>0.1259414293596167</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1699678583040756</v>
+        <v>0.1709565029855928</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>234</v>
@@ -5463,19 +5463,19 @@
         <v>244667</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>216854</v>
+        <v>216979</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>274940</v>
+        <v>273823</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1789565275095665</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1586132884272704</v>
+        <v>0.1587047718938952</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2010993708101392</v>
+        <v>0.2002816900544399</v>
       </c>
     </row>
     <row r="21">
@@ -5567,19 +5567,19 @@
         <v>2705649</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>2658073</v>
+        <v>2649428</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2749452</v>
+        <v>2752282</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.8007432463072566</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.7866631200696745</v>
+        <v>0.7841044071572072</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.8137068332652079</v>
+        <v>0.8145442773438675</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>2755</v>
@@ -5588,19 +5588,19 @@
         <v>2938813</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>2890893</v>
+        <v>2893836</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>2979190</v>
+        <v>2984333</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.8335245459804201</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8199333768503878</v>
+        <v>0.8207680845665049</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.8449766792760323</v>
+        <v>0.8464353088697946</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>5348</v>
@@ -5609,19 +5609,19 @@
         <v>5644461</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>5578622</v>
+        <v>5573845</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>5718817</v>
+        <v>5711144</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.8174824812407279</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8079469558770862</v>
+        <v>0.8072551441882401</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.8282512888268321</v>
+        <v>0.8271400442824516</v>
       </c>
     </row>
     <row r="23">
@@ -5638,19 +5638,19 @@
         <v>673273</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>629470</v>
+        <v>626640</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>720849</v>
+        <v>729494</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1992567536927434</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.186293166734792</v>
+        <v>0.1854557226561326</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2133368799303254</v>
+        <v>0.215895592842793</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>566</v>
@@ -5659,19 +5659,19 @@
         <v>586953</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>546576</v>
+        <v>541433</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>634873</v>
+        <v>631930</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1664754540195799</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1550233207239677</v>
+        <v>0.1535646911302054</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1800666231496122</v>
+        <v>0.1792319154334951</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1191</v>
@@ -5680,19 +5680,19 @@
         <v>1260227</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1185871</v>
+        <v>1193544</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1326066</v>
+        <v>1330843</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1825175187592722</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1717487111731683</v>
+        <v>0.1728599557175482</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.192053044122914</v>
+        <v>0.19274485581176</v>
       </c>
     </row>
     <row r="24">
